--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Classes\AI Engineering System\Misinfo_project\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02987225-073E-40B0-9D5F-C7BAA015DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>input_type</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>explanation</t>
-  </si>
-  <si>
-    <t>reviewer_feedback</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,45 +420,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>input_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>explanation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reviewer_feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27710df8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:05:28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Is Donald trump dead?</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Donald Trump is alive</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>YEs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3f0c02da</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:06:14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Is doald trump dead?</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Donald Trump is alive</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19ce38f5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:06:45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://gemini.google.com/app?_gl=1*9p3pxc*_gcl_au*NzM2Mzg1NDQxLjE3NjM0NTc4MDA.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Before you continue</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>We use cookies and data to
+If you choose to “Accept all,” we will also use cookies and data to
+If you choose to “Reject all,” we will not use cookies for these additional purposes.
+Non-personalized content is influenced by things like the content you’re currently viewing, activity in your active Search session, and your location. Non-personalized ads are influenced by the content you’re currently viewing and your general location. Personalized content and ads can also include more relevant results, recommendations, and tailored ads based on past activity from this browser, like previous Google searches. We also use cookies and data to tailor the experience to be age-appropriate, if relevant.
+Select “More options” to see additional information, including details about managing your privacy settings. You can also visit g.co/privacytools at any time.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>official privacy policy text</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ed825308</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:07:13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Is doald trump dead?</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Donald Trump is alive</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0a0d0162</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:11:16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Is donald trump dead??</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No credible sources confirm Donald Trump's death</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>yesadas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4b09ffc3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:18:18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>is donald trump dead?</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No credible sources confirm Donald Trump's death</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>yesss</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Classes\AI Engineering System\Misinfo_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE6423F-27B8-47C8-9EB1-1CDDCAE5AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71D1482-428C-4938-828F-CC24AC782C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Classes\AI Engineering System\Misinfo_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71D1482-428C-4938-828F-CC24AC782C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F863492-3129-43F1-986D-3E5DBFA62B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
